--- a/PROYECTO/personas.xlsx
+++ b/PROYECTO/personas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,16 @@
         </is>
       </c>
     </row>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/PROYECTO/personas.xlsx
+++ b/PROYECTO/personas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,50 +458,78 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>abigail Durand Palacios</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>23333</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>jdlfjkf@gmail.com</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>212121</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>fjladjf</t>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>abigail</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ajflaj@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1234555</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>25/06/2000</t>
         </is>
       </c>
     </row>
-    <row r="19"/>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+    <row r="18"/>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>abigail Durand palacios</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23df</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>25/07/2000</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
